--- a/medicine/Psychotrope/Café_Typica/Café_Typica.xlsx
+++ b/medicine/Psychotrope/Café_Typica/Café_Typica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_Typica</t>
+          <t>Café_Typica</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le café Typica est un type de café produit à partir d'un cultivar du caféier d'Arabie, connu depuis plus de trois siècles.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_Typica</t>
+          <t>Café_Typica</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le café Typica fut identifié pour la première fois à Java, une île de l'Indonésie au XVIIIe siècle. Au cours des années 1710, il fut amené par les néerlandais dans les jardins botaniques en Europe, ce qui lui a permis de devenir l'un des deux arabicas les plus cultivés au monde, l'autre étant le Café Bourbon[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le café Typica fut identifié pour la première fois à Java, une île de l'Indonésie au XVIIIe siècle. Au cours des années 1710, il fut amené par les néerlandais dans les jardins botaniques en Europe, ce qui lui a permis de devenir l'un des deux arabicas les plus cultivés au monde, l'autre étant le Café Bourbon.
 En 1720, le capitaine d'infanterie Gabriel de Clieu l'introduit à la Martinique avec deux des quatre plants du jardin botanique d'Amsterdam ramenés de Java, qui avaient été donnés à la France. De Martinique, il gagne les colonies française et espagnoles: Saint-Domingue, Cuba, Mexique, Amérique centrale, entre 1748 et 1790.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_Typica</t>
+          <t>Café_Typica</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout comme le café Bourbon est depuis le Xxème siècle souvent cultivé entre 1 000 et 2 000 mètres d'altitude, parfois un peu plus bas, mais ses rendements sont en moyenne de 20 à 30 % inférieurs à ceux obtenue à partir du Café Bourbon. La qualité des deux produits est similaire, ou légèrement meilleure pour le Bourbon, cultivé un peu plus haut en moyenne.
 </t>
